--- a/Spr/xls_forms/FA.xlsx
+++ b/Spr/xls_forms/FA.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="22710" windowHeight="10800"/>
   </bookViews>
   <sheets>
-    <sheet name="экспликация А" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="экспликация А" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -303,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,6 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -706,10 +708,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:EL1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:EL1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetData>
+    <row r="1" spans="1:142">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="34"/>
+      <c r="CE1" s="34"/>
+      <c r="CF1" s="34"/>
+      <c r="CG1" s="34"/>
+      <c r="CH1" s="34"/>
+      <c r="CI1" s="34"/>
+      <c r="CJ1" s="34"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="34"/>
+      <c r="CM1" s="34"/>
+      <c r="CN1" s="34"/>
+      <c r="CO1" s="34"/>
+      <c r="CP1" s="34"/>
+      <c r="CQ1" s="34"/>
+      <c r="CR1" s="34"/>
+      <c r="CS1" s="34"/>
+      <c r="CT1" s="34"/>
+      <c r="CU1" s="34"/>
+      <c r="CV1" s="34"/>
+      <c r="CW1" s="34"/>
+      <c r="CX1" s="34"/>
+      <c r="CY1" s="34"/>
+      <c r="CZ1" s="34"/>
+      <c r="DA1" s="34"/>
+      <c r="DB1" s="34"/>
+      <c r="DC1" s="34"/>
+      <c r="DD1" s="34"/>
+      <c r="DE1" s="34"/>
+      <c r="DF1" s="34"/>
+      <c r="DG1" s="34"/>
+      <c r="DH1" s="34"/>
+      <c r="DI1" s="34"/>
+      <c r="DJ1" s="34"/>
+      <c r="DK1" s="34"/>
+      <c r="DL1" s="34"/>
+      <c r="DM1" s="34"/>
+      <c r="DN1" s="34"/>
+      <c r="DO1" s="34"/>
+      <c r="DP1" s="34"/>
+      <c r="DQ1" s="34"/>
+      <c r="DR1" s="34"/>
+      <c r="DS1" s="34"/>
+      <c r="DT1" s="34"/>
+      <c r="DU1" s="34"/>
+      <c r="DV1" s="34"/>
+      <c r="DW1" s="34"/>
+      <c r="DX1" s="34"/>
+      <c r="DY1" s="34"/>
+      <c r="DZ1" s="34"/>
+      <c r="EA1" s="34"/>
+      <c r="EB1" s="34"/>
+      <c r="EC1" s="34"/>
+      <c r="ED1" s="34"/>
+      <c r="EE1" s="34"/>
+      <c r="EF1" s="34"/>
+      <c r="EG1" s="34"/>
+      <c r="EH1" s="34"/>
+      <c r="EI1" s="34"/>
+      <c r="EJ1" s="34"/>
+      <c r="EK1" s="34"/>
+      <c r="EL1" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/Spr/xls_forms/FA.xlsx
+++ b/Spr/xls_forms/FA.xlsx
@@ -1,31 +1,347 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\WorkSpace\explication\Spr\xls_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13512"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19152" windowHeight="9528"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="RB_экспликация_А" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="ExpB_24_04_2015_11_47">#REF!</definedName>
+    <definedName name="ExpFormaB_Work">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+  <si>
+    <t>Номер строки</t>
+  </si>
+  <si>
+    <t>в том числе</t>
+  </si>
+  <si>
+    <t>из них</t>
+  </si>
+  <si>
+    <t>осушенных</t>
+  </si>
+  <si>
+    <t>орошаемых</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Луговые, всего</t>
+  </si>
+  <si>
+    <t>в том числе арендуемых</t>
+  </si>
+  <si>
+    <t>улучшенные</t>
+  </si>
+  <si>
+    <t>естественные</t>
+  </si>
+  <si>
+    <t>при добыче полезных ископаемых</t>
+  </si>
+  <si>
+    <t>при добыче торфа и сапропелей</t>
+  </si>
+  <si>
+    <t>пески</t>
+  </si>
+  <si>
+    <t>овраги и промоины</t>
+  </si>
+  <si>
+    <t>выгоревшие торфяники</t>
+  </si>
+  <si>
+    <t>в стадии улучшения</t>
+  </si>
+  <si>
+    <t>для хранения отходов</t>
+  </si>
+  <si>
+    <t>в постоянном пользовании</t>
+  </si>
+  <si>
+    <t>во временном пользовании</t>
+  </si>
+  <si>
+    <t>арендуемых</t>
+  </si>
+  <si>
+    <t>Экспликация земель (форма А)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                               </t>
+  </si>
+  <si>
+    <t>(наименование населенного пункта)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>(наименование района, города)</t>
+  </si>
+  <si>
+    <t>(наименование землепользователя)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(наименование области) </t>
+  </si>
+  <si>
+    <t>(код целевого назначения, кадастровый номер)</t>
+  </si>
+  <si>
+    <t>Республика Беларусь</t>
+  </si>
+  <si>
+    <t>в гектарах</t>
+  </si>
+  <si>
+    <t>Показатели, характеризующие землепользование</t>
+  </si>
+  <si>
+    <t>Количество земельных участков</t>
+  </si>
+  <si>
+    <t>Общая площадь земель</t>
+  </si>
+  <si>
+    <t>Пахотные</t>
+  </si>
+  <si>
+    <t>Залежные</t>
+  </si>
+  <si>
+    <t>Под постянными культурами</t>
+  </si>
+  <si>
+    <t>Сельскохозяйствен- ные, всего</t>
+  </si>
+  <si>
+    <t>Лесные земли, всего</t>
+  </si>
+  <si>
+    <t>Под древесно- кустарниковой растительностью</t>
+  </si>
+  <si>
+    <t>Под болотами, всего</t>
+  </si>
+  <si>
+    <t>Под водными объектами</t>
+  </si>
+  <si>
+    <t>Под дорогами и иными транспортными коммуникациями</t>
+  </si>
+  <si>
+    <t>Под улицами и иными местами общего пользования</t>
+  </si>
+  <si>
+    <t>Под застройкой, всего</t>
+  </si>
+  <si>
+    <t>Нарушенные, всего</t>
+  </si>
+  <si>
+    <t>Неиспользуемые, всего</t>
+  </si>
+  <si>
+    <t>Иных, всего</t>
+  </si>
+  <si>
+    <t>сады</t>
+  </si>
+  <si>
+    <t>ягодники</t>
+  </si>
+  <si>
+    <t>плантации</t>
+  </si>
+  <si>
+    <t>плодопитомники</t>
+  </si>
+  <si>
+    <t>покрытые лесом</t>
+  </si>
+  <si>
+    <t>не покрытые лесом</t>
+  </si>
+  <si>
+    <t>под лесополосами</t>
+  </si>
+  <si>
+    <t>низинными</t>
+  </si>
+  <si>
+    <t>верховыми</t>
+  </si>
+  <si>
+    <t>переходными</t>
+  </si>
+  <si>
+    <t>реки</t>
+  </si>
+  <si>
+    <t>озера</t>
+  </si>
+  <si>
+    <t>искуственные водоемы</t>
+  </si>
+  <si>
+    <t>каналы</t>
+  </si>
+  <si>
+    <t>улицы</t>
+  </si>
+  <si>
+    <t>парки, скверы</t>
+  </si>
+  <si>
+    <t>жилая</t>
+  </si>
+  <si>
+    <t>усадебная</t>
+  </si>
+  <si>
+    <t>производственная</t>
+  </si>
+  <si>
+    <t>при ведении строительных работ</t>
+  </si>
+  <si>
+    <t>бывшие с.х. земли, загрязненные радионуклидами</t>
+  </si>
+  <si>
+    <t>прочие неиспользуемые</t>
+  </si>
+  <si>
+    <t>в стадии добычи полезных ископаемых и строительства</t>
+  </si>
+  <si>
+    <t>под бровками</t>
+  </si>
+  <si>
+    <t>под кладбищами</t>
+  </si>
+  <si>
+    <t>заболоченные</t>
+  </si>
+  <si>
+    <t>закустаренные</t>
+  </si>
+  <si>
+    <t>мелиоративного строительства</t>
+  </si>
+  <si>
+    <t>восстановления плодородия</t>
+  </si>
+  <si>
+    <t>добычи полезных ископаемых</t>
+  </si>
+  <si>
+    <t>добычи торфа и сапропелей</t>
+  </si>
+  <si>
+    <t>строительства</t>
+  </si>
+  <si>
+    <t>бытовых</t>
+  </si>
+  <si>
+    <t>промышленных</t>
+  </si>
+  <si>
+    <t>загрязненных радионуклидами</t>
+  </si>
+  <si>
+    <t>Всего земель</t>
+  </si>
+  <si>
+    <t>из общей площади:</t>
+  </si>
+  <si>
+    <t>в государственной собственности</t>
+  </si>
+  <si>
+    <t>в пожизненном наследуемом владении</t>
+  </si>
+  <si>
+    <t>в частной собственности</t>
+  </si>
+  <si>
+    <t>дренажем</t>
+  </si>
+  <si>
+    <t>с двойным регулированием</t>
+  </si>
+  <si>
+    <t>загрязненных радионуклидами, выбывших из сельхозоборота</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +349,71 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,18 +432,214 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 2 3" xfId="4"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -85,44 +662,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -155,9 +732,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -196,153 +773,1912 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BM40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:BM28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6" max="21" width="11" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="16.8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:65" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:65" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:65" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+    </row>
+    <row r="11" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+    </row>
+    <row r="12" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="26"/>
+      <c r="W12" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="26"/>
+      <c r="BM12" s="26"/>
+    </row>
+    <row r="13" spans="1:65" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="26"/>
+      <c r="X13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB13" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO13" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM13" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL14" s="28"/>
+      <c r="BM14" s="28"/>
+    </row>
+    <row r="15" spans="1:65" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="15">
+        <v>6</v>
+      </c>
+      <c r="L15" s="15">
+        <v>7</v>
+      </c>
+      <c r="M15" s="15">
+        <v>8</v>
+      </c>
+      <c r="N15" s="15">
+        <v>9</v>
+      </c>
+      <c r="O15" s="15">
+        <v>10</v>
+      </c>
+      <c r="P15" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>12</v>
+      </c>
+      <c r="R15" s="15">
+        <v>13</v>
+      </c>
+      <c r="S15" s="15">
+        <v>14</v>
+      </c>
+      <c r="T15" s="15">
+        <v>15</v>
+      </c>
+      <c r="U15" s="15">
+        <v>16</v>
+      </c>
+      <c r="V15" s="15">
+        <v>17</v>
+      </c>
+      <c r="W15" s="15">
+        <v>18</v>
+      </c>
+      <c r="X15" s="15">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>21</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>22</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>23</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>24</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>25</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>26</v>
+      </c>
+      <c r="AF15" s="15">
+        <v>27</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>28</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>29</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>30</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>31</v>
+      </c>
+      <c r="AK15" s="15">
+        <v>32</v>
+      </c>
+      <c r="AL15" s="15">
+        <v>33</v>
+      </c>
+      <c r="AM15" s="15">
+        <v>34</v>
+      </c>
+      <c r="AN15" s="15">
+        <v>35</v>
+      </c>
+      <c r="AO15" s="15">
+        <v>36</v>
+      </c>
+      <c r="AP15" s="15">
+        <v>37</v>
+      </c>
+      <c r="AQ15" s="15">
+        <v>38</v>
+      </c>
+      <c r="AR15" s="15">
+        <v>39</v>
+      </c>
+      <c r="AS15" s="15">
+        <v>40</v>
+      </c>
+      <c r="AT15" s="15">
+        <v>41</v>
+      </c>
+      <c r="AU15" s="15">
+        <v>42</v>
+      </c>
+      <c r="AV15" s="15">
+        <v>43</v>
+      </c>
+      <c r="AW15" s="15">
+        <v>44</v>
+      </c>
+      <c r="AX15" s="15">
+        <v>45</v>
+      </c>
+      <c r="AY15" s="15">
+        <v>46</v>
+      </c>
+      <c r="AZ15" s="15">
+        <v>47</v>
+      </c>
+      <c r="BA15" s="15">
+        <v>48</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>49</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>51</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>52</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>53</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>54</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>55</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>56</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>57</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>58</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>59</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
+      <c r="BK16" s="18"/>
+      <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+    </row>
+    <row r="17" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="18"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="18"/>
+      <c r="BH17" s="18"/>
+      <c r="BI17" s="18"/>
+      <c r="BJ17" s="18"/>
+      <c r="BK17" s="18"/>
+      <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+    </row>
+    <row r="18" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+    </row>
+    <row r="19" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="18"/>
+      <c r="BK19" s="18"/>
+      <c r="BL19" s="18"/>
+      <c r="BM19" s="18"/>
+    </row>
+    <row r="20" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+    </row>
+    <row r="21" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+    </row>
+    <row r="22" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="18"/>
+      <c r="BJ22" s="18"/>
+      <c r="BK22" s="18"/>
+      <c r="BL22" s="18"/>
+      <c r="BM22" s="18"/>
+    </row>
+    <row r="23" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="18"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="18"/>
+      <c r="BJ23" s="18"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="18"/>
+      <c r="BM23" s="18"/>
+    </row>
+    <row r="24" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
+      <c r="AZ24" s="18"/>
+      <c r="BA24" s="18"/>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="18"/>
+      <c r="BD24" s="18"/>
+      <c r="BE24" s="18"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="18"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
+      <c r="BM24" s="18"/>
+    </row>
+    <row r="25" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>10</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="18"/>
+      <c r="BA25" s="18"/>
+      <c r="BB25" s="18"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="18"/>
+      <c r="BE25" s="18"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="18"/>
+      <c r="BH25" s="18"/>
+      <c r="BI25" s="18"/>
+      <c r="BJ25" s="18"/>
+      <c r="BK25" s="18"/>
+      <c r="BL25" s="18"/>
+      <c r="BM25" s="18"/>
+    </row>
+    <row r="26" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>11</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="18"/>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="18"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="18"/>
+      <c r="BI26" s="18"/>
+      <c r="BJ26" s="18"/>
+      <c r="BK26" s="18"/>
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18"/>
+    </row>
+    <row r="27" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="18"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="18"/>
+      <c r="BB27" s="18"/>
+      <c r="BC27" s="18"/>
+      <c r="BD27" s="18"/>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="18"/>
+      <c r="BH27" s="18"/>
+      <c r="BI27" s="18"/>
+      <c r="BJ27" s="18"/>
+      <c r="BK27" s="18"/>
+      <c r="BL27" s="18"/>
+      <c r="BM27" s="18"/>
+    </row>
+    <row r="28" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="18"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="18"/>
+      <c r="BB28" s="18"/>
+      <c r="BC28" s="18"/>
+      <c r="BD28" s="18"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="18"/>
+      <c r="BG28" s="18"/>
+      <c r="BH28" s="18"/>
+      <c r="BI28" s="18"/>
+      <c r="BJ28" s="18"/>
+      <c r="BK28" s="18"/>
+      <c r="BL28" s="18"/>
+      <c r="BM28" s="18"/>
+    </row>
+    <row r="29" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AI12:AI14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AZ12:AZ14"/>
+    <mergeCell ref="BA12:BM12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AL14"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="AP12:AP14"/>
+    <mergeCell ref="AQ12:AS12"/>
+    <mergeCell ref="AT12:AT14"/>
+    <mergeCell ref="BB13:BC13"/>
+    <mergeCell ref="BD13:BD14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BI13:BK13"/>
+    <mergeCell ref="BL13:BL14"/>
+    <mergeCell ref="BM13:BM14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F16:BM28">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spr/xls_forms/FA.xlsx
+++ b/Spr/xls_forms/FA.xlsx
@@ -18,7 +18,7 @@
     <definedName name="ExpB_24_04_2015_11_47">#REF!</definedName>
     <definedName name="ExpFormaB_Work">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -940,9 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:BM28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2592,8 +2590,6 @@
     <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="U13:U14"/>
     <mergeCell ref="V13:V14"/>
     <mergeCell ref="A10:U10"/>
     <mergeCell ref="A11:U11"/>
@@ -2608,32 +2604,27 @@
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="S12:S14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AL14"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AI12:AI14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
     <mergeCell ref="T12:T14"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="Z12:AB12"/>
     <mergeCell ref="AC12:AC14"/>
     <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="AI12:AI14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AZ12:AZ14"/>
-    <mergeCell ref="BA12:BM12"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="U13:U14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AL14"/>
-    <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="AP12:AP14"/>
-    <mergeCell ref="AQ12:AS12"/>
-    <mergeCell ref="AT12:AT14"/>
-    <mergeCell ref="BB13:BC13"/>
     <mergeCell ref="BD13:BD14"/>
     <mergeCell ref="AO13:AO14"/>
     <mergeCell ref="AQ13:AQ14"/>
@@ -2641,6 +2632,13 @@
     <mergeCell ref="AS13:AS14"/>
     <mergeCell ref="AU13:AU14"/>
     <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AZ12:AZ14"/>
+    <mergeCell ref="BA12:BM12"/>
+    <mergeCell ref="AP12:AP14"/>
+    <mergeCell ref="AQ12:AS12"/>
+    <mergeCell ref="AT12:AT14"/>
+    <mergeCell ref="BB13:BC13"/>
+    <mergeCell ref="AU12:AY12"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="AW13:AW14"/>
     <mergeCell ref="AX13:AX14"/>

--- a/Spr/xls_forms/FA.xlsx
+++ b/Spr/xls_forms/FA.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\WorkSpace\explication\Spr\xls_forms\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19152" windowHeight="9528"/>
+    <workbookView xWindow="255" yWindow="-195" windowWidth="26520" windowHeight="11655"/>
   </bookViews>
   <sheets>
-    <sheet name="RB_экспликация_А" sheetId="6" r:id="rId1"/>
+    <sheet name="RB экспликация А" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ExpB_24_04_2015_11_47">#REF!</definedName>
     <definedName name="ExpFormaB_Work">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'RB экспликация А'!$A:$D</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'RB экспликация А'!$A$1:$BM$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>Номер строки</t>
   </si>
@@ -335,13 +332,28 @@
   </si>
   <si>
     <t>загрязненных радионуклидами, выбывших из сельхозоборота</t>
+  </si>
+  <si>
+    <t>Погрешности расчета по строкам</t>
+  </si>
+  <si>
+    <t>Погрешности расчета по графам</t>
+  </si>
+  <si>
+    <t>Изготовил: специалист                     Н.С. Золотарева</t>
+  </si>
+  <si>
+    <t>Проверил: зам.нач.отдела                     А.П. Теренёва</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +427,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,7 +459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,6 +519,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -492,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -543,11 +678,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -586,36 +748,64 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -624,7 +814,42 @@
     <cellStyle name="Обычный 2 3" xfId="4"/>
     <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -643,9 +868,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,7 +916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,21 +1160,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM40"/>
+  <dimension ref="A1:BX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="3.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="21" width="11" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="3"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -970,7 +1194,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:65" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -988,7 +1212,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:76" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1007,11 +1231,11 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:65" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -1019,7 +1243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1027,11 +1251,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:65" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1039,7 +1263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -1047,391 +1271,453 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="BO10" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP10" s="67"/>
+      <c r="BQ10" s="67"/>
+      <c r="BR10" s="67"/>
+      <c r="BS10" s="67"/>
+      <c r="BT10" s="67"/>
+      <c r="BU10" s="67"/>
+      <c r="BV10" s="67"/>
+      <c r="BW10" s="67"/>
+      <c r="BX10" s="67"/>
     </row>
-    <row r="11" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:76" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="BO11" s="68"/>
+      <c r="BP11" s="68"/>
+      <c r="BQ11" s="68"/>
+      <c r="BR11" s="68"/>
+      <c r="BS11" s="68"/>
+      <c r="BT11" s="68"/>
+      <c r="BU11" s="68"/>
+      <c r="BV11" s="68"/>
+      <c r="BW11" s="68"/>
+      <c r="BX11" s="68"/>
     </row>
-    <row r="12" spans="1:65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:76" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="31" t="s">
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="O12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="31" t="s">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="U12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="26"/>
-      <c r="W12" s="31" t="s">
+      <c r="V12" s="41"/>
+      <c r="W12" s="46" t="s">
         <v>52</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="31" t="s">
+      <c r="Y12" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="32" t="s">
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AD12" s="25" t="s">
+      <c r="AD12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="31" t="s">
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="AI12" s="31" t="s">
+      <c r="AI12" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="AJ12" s="35" t="s">
+      <c r="AJ12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="31" t="s">
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AM12" s="25" t="s">
+      <c r="AM12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="31" t="s">
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="25" t="s">
+      <c r="AQ12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="31" t="s">
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AU12" s="33" t="s">
+      <c r="AU12" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="31" t="s">
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="BA12" s="33" t="s">
+      <c r="BA12" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="26"/>
-      <c r="BD12" s="26"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="26"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12" s="26"/>
-      <c r="BL12" s="26"/>
-      <c r="BM12" s="26"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="41"/>
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="41"/>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="41"/>
+      <c r="BL12" s="41"/>
+      <c r="BM12" s="41"/>
+      <c r="BO12" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP12" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="BQ12" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR12" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT12" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="BU12" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV12" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW12" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX12" s="47" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="32" t="s">
+    <row r="13" spans="1:76" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="32" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="31" t="s">
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="V13" s="31" t="s">
+      <c r="V13" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="32" t="s">
+      <c r="W13" s="41"/>
+      <c r="X13" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="32" t="s">
+      <c r="AA13" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AB13" s="32" t="s">
+      <c r="AB13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="32" t="s">
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AE13" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AF13" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AG13" s="32" t="s">
+      <c r="AG13" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="32" t="s">
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AK13" s="32" t="s">
+      <c r="AK13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="32" t="s">
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="AN13" s="32" t="s">
+      <c r="AN13" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="AO13" s="32" t="s">
+      <c r="AO13" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="31" t="s">
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AR13" s="32" t="s">
+      <c r="AR13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AS13" s="31" t="s">
+      <c r="AS13" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="31" t="s">
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AV13" s="31" t="s">
+      <c r="AV13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AW13" s="31" t="s">
+      <c r="AW13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AX13" s="31" t="s">
+      <c r="AX13" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="AY13" s="31" t="s">
+      <c r="AY13" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="31" t="s">
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="BB13" s="25" t="s">
+      <c r="BB13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="32" t="s">
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="BE13" s="25" t="s">
+      <c r="BE13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="BF13" s="26"/>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="27" t="s">
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="BI13" s="28" t="s">
+      <c r="BI13" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="26"/>
-      <c r="BL13" s="27" t="s">
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="41"/>
+      <c r="BL13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="BM13" s="27" t="s">
+      <c r="BM13" s="42" t="s">
         <v>85</v>
       </c>
+      <c r="BO13" s="69"/>
+      <c r="BP13" s="69"/>
+      <c r="BQ13" s="69"/>
+      <c r="BR13" s="69"/>
+      <c r="BS13" s="69"/>
+      <c r="BT13" s="69"/>
+      <c r="BU13" s="69"/>
+      <c r="BV13" s="69"/>
+      <c r="BW13" s="69"/>
+      <c r="BX13" s="69"/>
     </row>
-    <row r="14" spans="1:65" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+    <row r="14" spans="1:76" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
       <c r="Q14" s="12" t="s">
         <v>86</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
       <c r="BB14" s="13" t="s">
         <v>88</v>
       </c>
       <c r="BC14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BD14" s="28"/>
+      <c r="BD14" s="43"/>
       <c r="BE14" s="13" t="s">
         <v>90</v>
       </c>
@@ -1441,7 +1727,7 @@
       <c r="BG14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BH14" s="28"/>
+      <c r="BH14" s="43"/>
       <c r="BI14" s="12" t="s">
         <v>93</v>
       </c>
@@ -1451,18 +1737,28 @@
       <c r="BK14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="BL14" s="28"/>
-      <c r="BM14" s="28"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BO14" s="69"/>
+      <c r="BP14" s="69"/>
+      <c r="BQ14" s="69"/>
+      <c r="BR14" s="69"/>
+      <c r="BS14" s="69"/>
+      <c r="BT14" s="69"/>
+      <c r="BU14" s="69"/>
+      <c r="BV14" s="69"/>
+      <c r="BW14" s="69"/>
+      <c r="BX14" s="69"/>
     </row>
-    <row r="15" spans="1:65" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:76" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1646,951 +1942,2324 @@
       <c r="BM15" s="1">
         <v>60</v>
       </c>
+      <c r="BO15" s="23"/>
+      <c r="BP15" s="24"/>
+      <c r="BQ15" s="23"/>
+      <c r="BR15" s="23"/>
+      <c r="BS15" s="23"/>
+      <c r="BT15" s="23"/>
+      <c r="BU15" s="23"/>
+      <c r="BV15" s="23"/>
+      <c r="BW15" s="23"/>
+      <c r="BX15" s="23"/>
     </row>
-    <row r="16" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="18"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="18"/>
-      <c r="BD16" s="18"/>
-      <c r="BE16" s="18"/>
-      <c r="BF16" s="18"/>
-      <c r="BG16" s="18"/>
-      <c r="BH16" s="18"/>
-      <c r="BI16" s="18"/>
-      <c r="BJ16" s="18"/>
-      <c r="BK16" s="18"/>
-      <c r="BL16" s="18"/>
-      <c r="BM16" s="18"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="26"/>
+      <c r="BF16" s="26"/>
+      <c r="BG16" s="26"/>
+      <c r="BH16" s="26"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="26"/>
+      <c r="BK16" s="26"/>
+      <c r="BL16" s="26"/>
+      <c r="BM16" s="26"/>
+      <c r="BO16" s="21">
+        <f>(S16+T16+W16+Y16+AC16+AH16+AI16+AL16+AP16+AT16+AZ16)-F16</f>
+        <v>0</v>
+      </c>
+      <c r="BP16" s="21">
+        <f>(G16+H16+I16+N16)-S16</f>
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="21">
+        <f>(J16+K16+L16+M16)-I16</f>
+        <v>0</v>
+      </c>
+      <c r="BR16" s="21">
+        <f>(O16+P16)-N16</f>
+        <v>0</v>
+      </c>
+      <c r="BS16" s="21">
+        <f>(AD16+AE16+AF16+AG16)-AC16</f>
+        <v>0</v>
+      </c>
+      <c r="BT16" s="21">
+        <f>(AJ16+AK16)-AI16</f>
+        <v>0</v>
+      </c>
+      <c r="BU16" s="21">
+        <f>(AM16+AO16)-AL16</f>
+        <v>0</v>
+      </c>
+      <c r="BV16" s="21">
+        <f>(AQ16+AR16+AS16)-AP16</f>
+        <v>0</v>
+      </c>
+      <c r="BW16" s="21">
+        <f>(AU16+AV16+AW16+AX16+AY16)-AT16</f>
+        <v>0</v>
+      </c>
+      <c r="BX16" s="25">
+        <f>(BA16+BD16+BH16+BL16+BM16)-AZ16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="18"/>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="18"/>
-      <c r="BD17" s="18"/>
-      <c r="BE17" s="18"/>
-      <c r="BF17" s="18"/>
-      <c r="BG17" s="18"/>
-      <c r="BH17" s="18"/>
-      <c r="BI17" s="18"/>
-      <c r="BJ17" s="18"/>
-      <c r="BK17" s="18"/>
-      <c r="BL17" s="18"/>
-      <c r="BM17" s="18"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26"/>
+      <c r="BM17" s="26"/>
+      <c r="BO17" s="21">
+        <f t="shared" ref="BO17:BO28" si="0">(S17+T17+W17+Y17+AC17+AH17+AI17+AL17+AP17+AT17+AZ17)-F17</f>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="21">
+        <f t="shared" ref="BP17:BP28" si="1">(G17+H17+I17+N17)-S17</f>
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="21">
+        <f t="shared" ref="BQ17:BQ28" si="2">(J17+K17+L17+M17)-I17</f>
+        <v>0</v>
+      </c>
+      <c r="BR17" s="21">
+        <f t="shared" ref="BR17:BR28" si="3">(O17+P17)-N17</f>
+        <v>0</v>
+      </c>
+      <c r="BS17" s="21">
+        <f t="shared" ref="BS17:BS28" si="4">(AD17+AE17+AF17+AG17)-AC17</f>
+        <v>0</v>
+      </c>
+      <c r="BT17" s="21">
+        <f t="shared" ref="BT17:BT28" si="5">(AJ17+AK17)-AI17</f>
+        <v>0</v>
+      </c>
+      <c r="BU17" s="21">
+        <f t="shared" ref="BU17:BU28" si="6">(AM17+AO17)-AL17</f>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="21">
+        <f t="shared" ref="BV17:BV28" si="7">(AQ17+AR17+AS17)-AP17</f>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="21">
+        <f t="shared" ref="BW17:BW28" si="8">(AU17+AV17+AW17+AX17+AY17)-AT17</f>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="25">
+        <f t="shared" ref="BX17:BX28" si="9">(BA17+BD17+BH17+BL17+BM17)-AZ17</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="18"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="18"/>
-      <c r="BJ18" s="18"/>
-      <c r="BK18" s="18"/>
-      <c r="BL18" s="18"/>
-      <c r="BM18" s="18"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="26"/>
+      <c r="BM18" s="26"/>
+      <c r="BO18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR18" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS18" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT18" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX18" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="19" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="18"/>
-      <c r="BE19" s="18"/>
-      <c r="BF19" s="18"/>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="18"/>
-      <c r="BJ19" s="18"/>
-      <c r="BK19" s="18"/>
-      <c r="BL19" s="18"/>
-      <c r="BM19" s="18"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="26"/>
+      <c r="BG19" s="26"/>
+      <c r="BH19" s="26"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="26"/>
+      <c r="BL19" s="26"/>
+      <c r="BM19" s="26"/>
+      <c r="BO19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR19" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS19" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT19" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV19" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX19" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="18"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
-      <c r="BK20" s="18"/>
-      <c r="BL20" s="18"/>
-      <c r="BM20" s="18"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="26"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="26"/>
+      <c r="BM20" s="26"/>
+      <c r="BO20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR20" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS20" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT20" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU20" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV20" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW20" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX20" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="18"/>
-      <c r="AX21" s="18"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="18"/>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="18"/>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="18"/>
-      <c r="BF21" s="18"/>
-      <c r="BG21" s="18"/>
-      <c r="BH21" s="18"/>
-      <c r="BI21" s="18"/>
-      <c r="BJ21" s="18"/>
-      <c r="BK21" s="18"/>
-      <c r="BL21" s="18"/>
-      <c r="BM21" s="18"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="26"/>
+      <c r="BH21" s="26"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="26"/>
+      <c r="BL21" s="26"/>
+      <c r="BM21" s="26"/>
+      <c r="BO21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP21" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR21" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV21" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW21" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX21" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="18"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
-      <c r="AX22" s="18"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="18"/>
-      <c r="BF22" s="18"/>
-      <c r="BG22" s="18"/>
-      <c r="BH22" s="18"/>
-      <c r="BI22" s="18"/>
-      <c r="BJ22" s="18"/>
-      <c r="BK22" s="18"/>
-      <c r="BL22" s="18"/>
-      <c r="BM22" s="18"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
+      <c r="BM22" s="26"/>
+      <c r="BO22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP22" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR22" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS22" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT22" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU22" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV22" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW22" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX22" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="18"/>
-      <c r="AT23" s="18"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="18"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="18"/>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="18"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="18"/>
-      <c r="BI23" s="18"/>
-      <c r="BJ23" s="18"/>
-      <c r="BK23" s="18"/>
-      <c r="BL23" s="18"/>
-      <c r="BM23" s="18"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="26"/>
+      <c r="BH23" s="26"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="26"/>
+      <c r="BO23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP23" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR23" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS23" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT23" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU23" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV23" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW23" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX23" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="18"/>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="18"/>
-      <c r="AT24" s="18"/>
-      <c r="AU24" s="18"/>
-      <c r="AV24" s="18"/>
-      <c r="AW24" s="18"/>
-      <c r="AX24" s="18"/>
-      <c r="AY24" s="18"/>
-      <c r="AZ24" s="18"/>
-      <c r="BA24" s="18"/>
-      <c r="BB24" s="18"/>
-      <c r="BC24" s="18"/>
-      <c r="BD24" s="18"/>
-      <c r="BE24" s="18"/>
-      <c r="BF24" s="18"/>
-      <c r="BG24" s="18"/>
-      <c r="BH24" s="18"/>
-      <c r="BI24" s="18"/>
-      <c r="BJ24" s="18"/>
-      <c r="BK24" s="18"/>
-      <c r="BL24" s="18"/>
-      <c r="BM24" s="18"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BO24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP24" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS24" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT24" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV24" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW24" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX24" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>10</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="18"/>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="18"/>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="18"/>
-      <c r="AX25" s="18"/>
-      <c r="AY25" s="18"/>
-      <c r="AZ25" s="18"/>
-      <c r="BA25" s="18"/>
-      <c r="BB25" s="18"/>
-      <c r="BC25" s="18"/>
-      <c r="BD25" s="18"/>
-      <c r="BE25" s="18"/>
-      <c r="BF25" s="18"/>
-      <c r="BG25" s="18"/>
-      <c r="BH25" s="18"/>
-      <c r="BI25" s="18"/>
-      <c r="BJ25" s="18"/>
-      <c r="BK25" s="18"/>
-      <c r="BL25" s="18"/>
-      <c r="BM25" s="18"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BO25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP25" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR25" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS25" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT25" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU25" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV25" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW25" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX25" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>11</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="19" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="18"/>
-      <c r="AT26" s="18"/>
-      <c r="AU26" s="18"/>
-      <c r="AV26" s="18"/>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="18"/>
-      <c r="BA26" s="18"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="18"/>
-      <c r="BD26" s="18"/>
-      <c r="BE26" s="18"/>
-      <c r="BF26" s="18"/>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="18"/>
-      <c r="BI26" s="18"/>
-      <c r="BJ26" s="18"/>
-      <c r="BK26" s="18"/>
-      <c r="BL26" s="18"/>
-      <c r="BM26" s="18"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
+      <c r="BH26" s="26"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="26"/>
+      <c r="BO26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR26" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS26" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT26" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU26" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV26" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW26" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX26" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="18"/>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="18"/>
-      <c r="AS27" s="18"/>
-      <c r="AT27" s="18"/>
-      <c r="AU27" s="18"/>
-      <c r="AV27" s="18"/>
-      <c r="AW27" s="18"/>
-      <c r="AX27" s="18"/>
-      <c r="AY27" s="18"/>
-      <c r="AZ27" s="18"/>
-      <c r="BA27" s="18"/>
-      <c r="BB27" s="18"/>
-      <c r="BC27" s="18"/>
-      <c r="BD27" s="18"/>
-      <c r="BE27" s="18"/>
-      <c r="BF27" s="18"/>
-      <c r="BG27" s="18"/>
-      <c r="BH27" s="18"/>
-      <c r="BI27" s="18"/>
-      <c r="BJ27" s="18"/>
-      <c r="BK27" s="18"/>
-      <c r="BL27" s="18"/>
-      <c r="BM27" s="18"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
+      <c r="BH27" s="26"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
+      <c r="BM27" s="26"/>
+      <c r="BO27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP27" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR27" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS27" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT27" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU27" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV27" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW27" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX27" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="18"/>
-      <c r="AS28" s="18"/>
-      <c r="AT28" s="18"/>
-      <c r="AU28" s="18"/>
-      <c r="AV28" s="18"/>
-      <c r="AW28" s="18"/>
-      <c r="AX28" s="18"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="18"/>
-      <c r="BA28" s="18"/>
-      <c r="BB28" s="18"/>
-      <c r="BC28" s="18"/>
-      <c r="BD28" s="18"/>
-      <c r="BE28" s="18"/>
-      <c r="BF28" s="18"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="18"/>
-      <c r="BI28" s="18"/>
-      <c r="BJ28" s="18"/>
-      <c r="BK28" s="18"/>
-      <c r="BL28" s="18"/>
-      <c r="BM28" s="18"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="26"/>
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
+      <c r="BM28" s="26"/>
+      <c r="BO28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP28" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR28" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BS28" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT28" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU28" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BV28" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BW28" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BX28" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="31"/>
+      <c r="AX29" s="31"/>
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+      <c r="BA29" s="31"/>
+      <c r="BB29" s="31"/>
+      <c r="BC29" s="31"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="31"/>
+      <c r="BG29" s="31"/>
+      <c r="BH29" s="31"/>
+      <c r="BI29" s="31"/>
+      <c r="BJ29" s="31"/>
+      <c r="BK29" s="31"/>
+      <c r="BL29" s="31"/>
+      <c r="BM29" s="31"/>
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="32"/>
+      <c r="BQ29" s="32"/>
+      <c r="BR29" s="32"/>
+      <c r="BS29" s="32"/>
+      <c r="BT29" s="32"/>
+      <c r="BU29" s="32"/>
+      <c r="BV29" s="32"/>
+      <c r="BW29" s="32"/>
+      <c r="BX29" s="33"/>
+    </row>
+    <row r="30" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="31"/>
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BO30" s="32"/>
+      <c r="BP30" s="32"/>
+      <c r="BQ30" s="32"/>
+      <c r="BR30" s="32"/>
+      <c r="BS30" s="32"/>
+      <c r="BT30" s="32"/>
+      <c r="BU30" s="32"/>
+      <c r="BV30" s="32"/>
+      <c r="BW30" s="32"/>
+      <c r="BX30" s="33"/>
+    </row>
+    <row r="31" spans="1:76" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+      <c r="AW31" s="31"/>
+      <c r="AX31" s="31"/>
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+      <c r="BA31" s="31"/>
+      <c r="BB31" s="31"/>
+      <c r="BC31" s="31"/>
+      <c r="BD31" s="31"/>
+      <c r="BE31" s="31"/>
+      <c r="BF31" s="31"/>
+      <c r="BG31" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH31" s="31"/>
+      <c r="BI31" s="31"/>
+      <c r="BJ31" s="31"/>
+      <c r="BK31" s="31"/>
+      <c r="BL31" s="31"/>
+      <c r="BM31" s="31"/>
+      <c r="BO31" s="32"/>
+      <c r="BP31" s="32"/>
+      <c r="BQ31" s="32"/>
+      <c r="BR31" s="32"/>
+      <c r="BS31" s="32"/>
+      <c r="BT31" s="32"/>
+      <c r="BU31" s="32"/>
+      <c r="BV31" s="32"/>
+      <c r="BW31" s="32"/>
+      <c r="BX31" s="33"/>
+    </row>
+    <row r="32" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG32" s="59"/>
+      <c r="BH32" s="60"/>
+      <c r="BI32" s="60"/>
+      <c r="BJ32" s="60"/>
+      <c r="BK32" s="60"/>
+    </row>
+    <row r="33" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+    </row>
+    <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21">
+        <f>F17+F22-F16</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" ref="G35:BM35" si="10">G17+G22-G16</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BH35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BK35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BM35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="21">
+        <f>F18+F19+F20+F21-F17</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" ref="G36:BM36" si="11">G18+G19+G20+G21-G17</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AR36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AV36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AW36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AX36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AY36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BA36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BG36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BH36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BI36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BK36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BL36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BM36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="99">
+    <mergeCell ref="BG32:BK32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="BO10:BX11"/>
+    <mergeCell ref="BO12:BO14"/>
+    <mergeCell ref="BP12:BP14"/>
+    <mergeCell ref="BQ12:BQ14"/>
+    <mergeCell ref="BR12:BR14"/>
+    <mergeCell ref="BS12:BS14"/>
+    <mergeCell ref="BT12:BT14"/>
+    <mergeCell ref="BU12:BU14"/>
+    <mergeCell ref="BV12:BV14"/>
+    <mergeCell ref="BW12:BW14"/>
+    <mergeCell ref="BX12:BX14"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="R34:AC34"/>
+    <mergeCell ref="AD34:AO34"/>
+    <mergeCell ref="AP34:BA34"/>
+    <mergeCell ref="BB34:BM34"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="U13:U14"/>
     <mergeCell ref="V13:V14"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AI12:AI14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AZ12:AZ14"/>
+    <mergeCell ref="BA12:BM12"/>
     <mergeCell ref="A10:U10"/>
     <mergeCell ref="A11:U11"/>
     <mergeCell ref="A12:A14"/>
@@ -2604,27 +4273,21 @@
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="AJ12:AK12"/>
     <mergeCell ref="AL12:AL14"/>
     <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="AI12:AI14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AC14"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="AP12:AP14"/>
+    <mergeCell ref="AT12:AT14"/>
+    <mergeCell ref="BB13:BC13"/>
     <mergeCell ref="BD13:BD14"/>
     <mergeCell ref="AO13:AO14"/>
     <mergeCell ref="AQ13:AQ14"/>
@@ -2632,13 +4295,7 @@
     <mergeCell ref="AS13:AS14"/>
     <mergeCell ref="AU13:AU14"/>
     <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AZ12:AZ14"/>
-    <mergeCell ref="BA12:BM12"/>
-    <mergeCell ref="AP12:AP14"/>
     <mergeCell ref="AQ12:AS12"/>
-    <mergeCell ref="AT12:AT14"/>
-    <mergeCell ref="BB13:BC13"/>
-    <mergeCell ref="AU12:AY12"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="AW13:AW14"/>
     <mergeCell ref="AX13:AX14"/>
@@ -2671,12 +4328,39 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
   </mergeCells>
-  <conditionalFormatting sqref="F16:BM28">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F16:BM29 F30:BB30 BD30:BM30 F31:BM31">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F35:BM36">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThanOrEqual">
+      <formula>-0.0099</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
+      <formula>0.0099</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX16:BX31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO16:BW31">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>-0.0099</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+      <formula>0.0099</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToWidth="4" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="4" manualBreakCount="4">
+    <brk id="19" max="30" man="1"/>
+    <brk id="34" max="30" man="1"/>
+    <brk id="51" max="30" man="1"/>
+    <brk id="65" max="30" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Spr/xls_forms/FA.xlsx
+++ b/Spr/xls_forms/FA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YAKUNIN5784\PycharmProjects\ExpMaker\Spr\xls_forms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CC038-E245-426F-87B6-7FDACE073797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="-195" windowWidth="26520" windowHeight="11655"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RB экспликация А" sheetId="6" r:id="rId1"/>
@@ -15,7 +21,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'RB экспликация А'!$A:$D</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'RB экспликация А'!$A$1:$BM$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -349,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -711,76 +725,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -805,14 +749,84 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 2 3" xfId="4"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -869,6 +883,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -916,7 +933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -949,9 +966,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,6 +1018,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1159,11 +1210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1272,204 +1323,204 @@
       </c>
     </row>
     <row r="10" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="BO10" s="66" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="BO10" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="BP10" s="67"/>
-      <c r="BQ10" s="67"/>
-      <c r="BR10" s="67"/>
-      <c r="BS10" s="67"/>
-      <c r="BT10" s="67"/>
-      <c r="BU10" s="67"/>
-      <c r="BV10" s="67"/>
-      <c r="BW10" s="67"/>
-      <c r="BX10" s="67"/>
+      <c r="BP10" s="43"/>
+      <c r="BQ10" s="43"/>
+      <c r="BR10" s="43"/>
+      <c r="BS10" s="43"/>
+      <c r="BT10" s="43"/>
+      <c r="BU10" s="43"/>
+      <c r="BV10" s="43"/>
+      <c r="BW10" s="43"/>
+      <c r="BX10" s="43"/>
     </row>
     <row r="11" spans="1:76" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="BO11" s="68"/>
-      <c r="BP11" s="68"/>
-      <c r="BQ11" s="68"/>
-      <c r="BR11" s="68"/>
-      <c r="BS11" s="68"/>
-      <c r="BT11" s="68"/>
-      <c r="BU11" s="68"/>
-      <c r="BV11" s="68"/>
-      <c r="BW11" s="68"/>
-      <c r="BX11" s="68"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="BO11" s="44"/>
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="44"/>
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="44"/>
+      <c r="BU11" s="44"/>
+      <c r="BV11" s="44"/>
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="44"/>
     </row>
     <row r="12" spans="1:76" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="49" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="46" t="s">
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="46" t="s">
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="T12" s="46" t="s">
+      <c r="T12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="46" t="s">
+      <c r="V12" s="50"/>
+      <c r="W12" s="49" t="s">
         <v>52</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="46" t="s">
+      <c r="Y12" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="Z12" s="40" t="s">
+      <c r="Z12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
       <c r="AC12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AD12" s="40" t="s">
+      <c r="AD12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="46" t="s">
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AJ12" s="49" t="s">
+      <c r="AJ12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="46" t="s">
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AM12" s="40" t="s">
+      <c r="AM12" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="46" t="s">
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="40" t="s">
+      <c r="AQ12" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="46" t="s">
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AU12" s="58" t="s">
+      <c r="AU12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="46" t="s">
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="BA12" s="58" t="s">
+      <c r="BA12" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="41"/>
-      <c r="BL12" s="41"/>
-      <c r="BM12" s="41"/>
-      <c r="BO12" s="40" t="s">
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
+      <c r="BM12" s="50"/>
+      <c r="BO12" s="45" t="s">
         <v>46</v>
       </c>
       <c r="BP12" s="47" t="s">
@@ -1501,15 +1552,15 @@
       </c>
     </row>
     <row r="13" spans="1:76" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="47" t="s">
         <v>61</v>
       </c>
@@ -1522,30 +1573,30 @@
       <c r="M13" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="41"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="P13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="48" t="s">
+      <c r="Q13" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="46" t="s">
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="V13" s="46" t="s">
+      <c r="V13" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="41"/>
+      <c r="W13" s="50"/>
       <c r="X13" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="Y13" s="41"/>
+      <c r="Y13" s="50"/>
       <c r="Z13" s="47" t="s">
         <v>68</v>
       </c>
@@ -1555,7 +1606,7 @@
       <c r="AB13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AC13" s="41"/>
+      <c r="AC13" s="50"/>
       <c r="AD13" s="47" t="s">
         <v>71</v>
       </c>
@@ -1568,15 +1619,15 @@
       <c r="AG13" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
       <c r="AJ13" s="47" t="s">
         <v>75</v>
       </c>
       <c r="AK13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="AL13" s="41"/>
+      <c r="AL13" s="50"/>
       <c r="AM13" s="47" t="s">
         <v>77</v>
       </c>
@@ -1586,138 +1637,138 @@
       <c r="AO13" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="46" t="s">
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="49" t="s">
         <v>23</v>
       </c>
       <c r="AR13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AS13" s="46" t="s">
+      <c r="AS13" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="46" t="s">
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AV13" s="46" t="s">
+      <c r="AV13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AW13" s="46" t="s">
+      <c r="AW13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AX13" s="46" t="s">
+      <c r="AX13" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AY13" s="46" t="s">
+      <c r="AY13" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="46" t="s">
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="BB13" s="40" t="s">
+      <c r="BB13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="BC13" s="41"/>
+      <c r="BC13" s="50"/>
       <c r="BD13" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="BE13" s="40" t="s">
+      <c r="BE13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="42" t="s">
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="BI13" s="43" t="s">
+      <c r="BI13" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="BJ13" s="41"/>
-      <c r="BK13" s="41"/>
-      <c r="BL13" s="42" t="s">
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="BM13" s="42" t="s">
+      <c r="BM13" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="BO13" s="69"/>
-      <c r="BP13" s="69"/>
-      <c r="BQ13" s="69"/>
-      <c r="BR13" s="69"/>
-      <c r="BS13" s="69"/>
-      <c r="BT13" s="69"/>
-      <c r="BU13" s="69"/>
-      <c r="BV13" s="69"/>
-      <c r="BW13" s="69"/>
-      <c r="BX13" s="69"/>
+      <c r="BO13" s="46"/>
+      <c r="BP13" s="46"/>
+      <c r="BQ13" s="46"/>
+      <c r="BR13" s="46"/>
+      <c r="BS13" s="46"/>
+      <c r="BT13" s="46"/>
+      <c r="BU13" s="46"/>
+      <c r="BV13" s="46"/>
+      <c r="BW13" s="46"/>
+      <c r="BX13" s="46"/>
     </row>
     <row r="14" spans="1:76" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
       <c r="Q14" s="12" t="s">
         <v>86</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
-      <c r="AR14" s="43"/>
-      <c r="AS14" s="43"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="43"/>
-      <c r="AX14" s="43"/>
-      <c r="AY14" s="43"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
       <c r="BB14" s="13" t="s">
         <v>88</v>
       </c>
       <c r="BC14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BD14" s="43"/>
+      <c r="BD14" s="51"/>
       <c r="BE14" s="13" t="s">
         <v>90</v>
       </c>
@@ -1727,7 +1778,7 @@
       <c r="BG14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BH14" s="43"/>
+      <c r="BH14" s="51"/>
       <c r="BI14" s="12" t="s">
         <v>93</v>
       </c>
@@ -1737,28 +1788,28 @@
       <c r="BK14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="43"/>
-      <c r="BO14" s="69"/>
-      <c r="BP14" s="69"/>
-      <c r="BQ14" s="69"/>
-      <c r="BR14" s="69"/>
-      <c r="BS14" s="69"/>
-      <c r="BT14" s="69"/>
-      <c r="BU14" s="69"/>
-      <c r="BV14" s="69"/>
-      <c r="BW14" s="69"/>
-      <c r="BX14" s="69"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+      <c r="BO14" s="46"/>
+      <c r="BP14" s="46"/>
+      <c r="BQ14" s="46"/>
+      <c r="BR14" s="46"/>
+      <c r="BS14" s="46"/>
+      <c r="BT14" s="46"/>
+      <c r="BU14" s="46"/>
+      <c r="BV14" s="46"/>
+      <c r="BW14" s="46"/>
+      <c r="BX14" s="46"/>
     </row>
     <row r="15" spans="1:76" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1957,11 +2008,11 @@
       <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="17"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -2068,13 +2119,13 @@
       <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="17"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
@@ -2181,8 +2232,8 @@
       <c r="A18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -2294,8 +2345,8 @@
       <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="18" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2456,8 @@
       <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="18" t="s">
         <v>31</v>
       </c>
@@ -2516,8 +2567,8 @@
       <c r="A21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
@@ -2627,11 +2678,11 @@
       <c r="A22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="17"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -2738,11 +2789,11 @@
       <c r="A23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="17"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
@@ -2849,11 +2900,11 @@
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="17"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -2960,8 +3011,8 @@
       <c r="A25" s="16">
         <v>10</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -3073,8 +3124,8 @@
       <c r="A26" s="16">
         <v>11</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="18" t="s">
         <v>102</v>
       </c>
@@ -3184,11 +3235,11 @@
       <c r="A27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="17"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3295,11 +3346,11 @@
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="17"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -3637,11 +3688,11 @@
       <c r="BX31" s="33"/>
     </row>
     <row r="32" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BG32" s="59"/>
-      <c r="BH32" s="60"/>
-      <c r="BI32" s="60"/>
-      <c r="BJ32" s="60"/>
-      <c r="BK32" s="60"/>
+      <c r="BG32" s="35"/>
+      <c r="BH32" s="36"/>
+      <c r="BI32" s="36"/>
+      <c r="BJ32" s="36"/>
+      <c r="BK32" s="36"/>
     </row>
     <row r="33" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3650,84 +3701,84 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57" t="s">
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="57" t="s">
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57" t="s">
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48"/>
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="48"/>
+      <c r="AO34" s="48"/>
+      <c r="AP34" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57" t="s">
+      <c r="AQ34" s="48"/>
+      <c r="AR34" s="48"/>
+      <c r="AS34" s="48"/>
+      <c r="AT34" s="48"/>
+      <c r="AU34" s="48"/>
+      <c r="AV34" s="48"/>
+      <c r="AW34" s="48"/>
+      <c r="AX34" s="48"/>
+      <c r="AY34" s="48"/>
+      <c r="AZ34" s="48"/>
+      <c r="BA34" s="48"/>
+      <c r="BB34" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
+      <c r="BC34" s="48"/>
+      <c r="BD34" s="48"/>
+      <c r="BE34" s="48"/>
+      <c r="BF34" s="48"/>
+      <c r="BG34" s="48"/>
+      <c r="BH34" s="48"/>
+      <c r="BI34" s="48"/>
+      <c r="BJ34" s="48"/>
+      <c r="BK34" s="48"/>
+      <c r="BL34" s="48"/>
+      <c r="BM34" s="48"/>
     </row>
     <row r="35" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21">
         <f>F17+F22-F16</f>
@@ -3973,10 +4024,10 @@
     <row r="36" spans="1:65" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="23"/>
       <c r="F36" s="21">
         <f>F18+F19+F20+F21-F17</f>
@@ -4228,6 +4279,89 @@
     <row r="43" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BI13:BK13"/>
+    <mergeCell ref="BL13:BL14"/>
+    <mergeCell ref="BM13:BM14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="AT12:AT14"/>
+    <mergeCell ref="BB13:BC13"/>
+    <mergeCell ref="BD13:BD14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AQ12:AS12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AL14"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="AP12:AP14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="AD34:AO34"/>
+    <mergeCell ref="AP34:BA34"/>
+    <mergeCell ref="BB34:BM34"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AI12:AI14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AZ12:AZ14"/>
+    <mergeCell ref="BA12:BM12"/>
     <mergeCell ref="BG32:BK32"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -4244,89 +4378,6 @@
     <mergeCell ref="BX12:BX14"/>
     <mergeCell ref="F34:Q34"/>
     <mergeCell ref="R34:AC34"/>
-    <mergeCell ref="AD34:AO34"/>
-    <mergeCell ref="AP34:BA34"/>
-    <mergeCell ref="BB34:BM34"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AC14"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="AI12:AI14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AU12:AY12"/>
-    <mergeCell ref="AZ12:AZ14"/>
-    <mergeCell ref="BA12:BM12"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AL14"/>
-    <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="AP12:AP14"/>
-    <mergeCell ref="AT12:AT14"/>
-    <mergeCell ref="BB13:BC13"/>
-    <mergeCell ref="BD13:BD14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AQ12:AS12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="BE13:BG13"/>
-    <mergeCell ref="BH13:BH14"/>
-    <mergeCell ref="BI13:BK13"/>
-    <mergeCell ref="BL13:BL14"/>
-    <mergeCell ref="BM13:BM14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="F16:BM29 F30:BB30 BD30:BM30 F31:BM31">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
